--- a/Microsoft 365/Monthly Enterprise Channel/outlookmmsreadcontrols.xlsx
+++ b/Microsoft 365/Monthly Enterprise Channel/outlookmmsreadcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\MEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\MECOct2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB2BD7F-4950-4729-94E3-7B14CBFA3A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B455F2-74EC-4FA5-907E-4D968F0BC8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="outlookmmsreadcontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="233">
   <si>
     <t>Policy ID</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>OutlookFeedbackUIF</t>
+  </si>
+  <si>
+    <t>OfficeFeedbackBackstage</t>
   </si>
   <si>
     <t>ContextMenuAttachments</t>
@@ -722,25 +725,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -748,7 +751,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -756,7 +759,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -764,35 +767,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -800,7 +803,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -808,14 +811,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -823,14 +826,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -838,7 +841,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -846,14 +849,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -907,19 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -930,19 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -953,19 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981048"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -976,19 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -999,19 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1022,19 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1070,7 +1073,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,8 +1263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I248" totalsRowShown="0">
-  <autoFilter ref="A1:I248"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I249" totalsRowShown="0">
+  <autoFilter ref="A1:I249"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -1288,39 +1291,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1372,7 +1375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1483,13 +1486,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1498,6 +1494,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1562,11 +1565,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1574,26 +1597,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1619,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1679,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1673,7 +1696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1690,7 +1713,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1707,7 +1730,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1724,7 +1747,7 @@
         <v>25419</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1741,7 +1764,7 @@
         <v>16164</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1755,7 +1778,7 @@
         <v>13289</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +1795,7 @@
         <v>19684</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1792,7 +1815,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1832,7 @@
         <v>14350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1829,7 +1852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1872,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1869,7 +1892,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1886,7 +1909,7 @@
         <v>17470</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1906,7 +1929,7 @@
         <v>17469</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1929,7 +1952,7 @@
         <v>19502</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1955,7 +1978,7 @@
         <v>19496</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1981,7 +2004,7 @@
         <v>19497</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2007,7 +2030,7 @@
         <v>19498</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2033,7 +2056,7 @@
         <v>19499</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2059,7 +2082,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2085,7 +2108,7 @@
         <v>19501</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2134,7 @@
         <v>17703</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2134,7 +2157,7 @@
         <v>18356</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2154,7 +2177,7 @@
         <v>18356</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2171,7 +2194,7 @@
         <v>22379</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2191,7 +2214,7 @@
         <v>15054</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2214,7 +2237,7 @@
         <v>22975</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2234,7 +2257,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2257,7 +2280,7 @@
         <v>14375</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2280,7 +2303,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2303,7 +2326,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2326,7 +2349,7 @@
         <v>17649</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2349,7 +2372,7 @@
         <v>17650</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2392,7 @@
         <v>17471</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2415,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -2415,7 +2438,7 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2432,7 +2455,7 @@
         <v>14347</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2452,7 +2475,7 @@
         <v>21047</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2472,7 +2495,7 @@
         <v>14381</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2495,7 +2518,7 @@
         <v>11856</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -2518,7 +2541,7 @@
         <v>22152</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -2541,7 +2564,7 @@
         <v>11855</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2561,7 +2584,7 @@
         <v>11633</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -2584,7 +2607,7 @@
         <v>11313</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2607,7 +2630,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2630,7 +2653,7 @@
         <v>11315</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -2653,7 +2676,7 @@
         <v>11316</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -2676,7 +2699,7 @@
         <v>11634</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2699,7 +2722,7 @@
         <v>11319</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -2722,7 +2745,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2745,7 +2768,7 @@
         <v>11453</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -2768,7 +2791,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -2791,7 +2814,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -2808,7 +2831,7 @@
         <v>13294</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2828,7 +2851,7 @@
         <v>13308</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2848,7 +2871,7 @@
         <v>13309</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2865,7 +2888,7 @@
         <v>13291</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2885,7 +2908,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2905,7 +2928,7 @@
         <v>15108</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2922,7 +2945,7 @@
         <v>12597</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -2942,7 +2965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -2962,7 +2985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2982,7 +3005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3002,7 +3025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -3019,7 +3042,7 @@
         <v>15055</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -3039,7 +3062,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -3059,7 +3082,7 @@
         <v>21047</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -3076,7 +3099,7 @@
         <v>13343</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -3096,7 +3119,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -3116,7 +3139,7 @@
         <v>13315</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -3136,7 +3159,7 @@
         <v>13313</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -3159,7 +3182,7 @@
         <v>13318</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -3179,7 +3202,7 @@
         <v>13318</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3196,7 +3219,7 @@
         <v>13293</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3216,7 +3239,7 @@
         <v>13316</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -3239,7 +3262,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -3262,7 +3285,7 @@
         <v>20868</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -3282,7 +3305,7 @@
         <v>13303</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -3302,7 +3325,7 @@
         <v>13317</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -3325,7 +3348,7 @@
         <v>13319</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -3348,7 +3371,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -3365,7 +3388,7 @@
         <v>13295</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -3385,7 +3408,7 @@
         <v>13341</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -3399,7 +3422,7 @@
         <v>22110</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -3416,7 +3439,7 @@
         <v>22111</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -3436,7 +3459,7 @@
         <v>19623</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -3456,7 +3479,7 @@
         <v>19624</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -3476,7 +3499,7 @@
         <v>19625</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -3493,7 +3516,7 @@
         <v>22112</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -3513,7 +3536,7 @@
         <v>22113</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -3533,7 +3556,7 @@
         <v>22338</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -3550,7 +3573,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3567,7 +3590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3584,7 +3607,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -3601,7 +3624,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -3618,7 +3641,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -3635,7 +3658,7 @@
         <v>11323</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -3652,7 +3675,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -3669,7 +3692,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -3686,7 +3709,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -3703,7 +3726,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -3720,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -3737,7 +3760,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="B107" t="s">
         <v>9</v>
       </c>
@@ -3751,7 +3774,7 @@
         <v>19211</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="B108" t="s">
         <v>9</v>
       </c>
@@ -3765,7 +3788,7 @@
         <v>19212</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="B109" t="s">
         <v>9</v>
       </c>
@@ -3779,7 +3802,7 @@
         <v>19214</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="B110" t="s">
         <v>9</v>
       </c>
@@ -3793,7 +3816,7 @@
         <v>19213</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="B111" t="s">
         <v>9</v>
       </c>
@@ -3807,7 +3830,7 @@
         <v>19215</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -3824,7 +3847,7 @@
         <v>9340</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -3841,7 +3864,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -3858,7 +3881,7 @@
         <v>7714</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -3875,7 +3898,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -3892,7 +3915,7 @@
         <v>16164</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -3909,7 +3932,7 @@
         <v>32712</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -3926,7 +3949,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -3943,7 +3966,7 @@
         <v>24438</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -3960,7 +3983,7 @@
         <v>22143</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -3977,7 +4000,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -3994,7 +4017,7 @@
         <v>7391</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -4011,7 +4034,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -4028,7 +4051,7 @@
         <v>25419</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -4045,7 +4068,7 @@
         <v>22377</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -4062,7 +4085,7 @@
         <v>5598</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -4079,7 +4102,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -4096,7 +4119,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -4113,7 +4136,7 @@
         <v>26904</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -4130,7 +4153,7 @@
         <v>27010</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -4147,7 +4170,7 @@
         <v>27007</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -4164,7 +4187,7 @@
         <v>27006</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -4181,7 +4204,7 @@
         <v>27085</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -4198,7 +4221,7 @@
         <v>27142</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -4215,7 +4238,7 @@
         <v>27805</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -4232,7 +4255,7 @@
         <v>27877</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>80</v>
       </c>
@@ -4249,7 +4272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>81</v>
       </c>
@@ -4266,7 +4289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4283,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -4300,7 +4323,7 @@
         <v>27964</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -4317,7 +4340,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="B142" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4351,7 @@
         <v>33991</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -4342,7 +4365,7 @@
         <v>18148</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -4359,7 +4382,7 @@
         <v>25295</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -4376,7 +4399,7 @@
         <v>34474</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="B146" t="s">
         <v>24</v>
       </c>
@@ -4390,7 +4413,7 @@
         <v>33917</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4407,7 +4430,7 @@
         <v>33912</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -4424,7 +4447,7 @@
         <v>20423</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -4441,7 +4464,7 @@
         <v>20424</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -4458,7 +4481,7 @@
         <v>20425</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -4475,7 +4498,7 @@
         <v>20426</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -4492,7 +4515,7 @@
         <v>20440</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -4509,7 +4532,7 @@
         <v>20441</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -4526,7 +4549,7 @@
         <v>32646</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4543,7 +4566,7 @@
         <v>20442</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -4560,7 +4583,7 @@
         <v>20443</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -4577,7 +4600,7 @@
         <v>20444</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4594,7 +4617,7 @@
         <v>20445</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4611,7 +4634,7 @@
         <v>18792</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="B160" t="s">
         <v>9</v>
       </c>
@@ -4622,7 +4645,7 @@
         <v>33940</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="B161" t="s">
         <v>9</v>
       </c>
@@ -4633,7 +4656,7 @@
         <v>33939</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -4647,7 +4670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>113</v>
       </c>
@@ -4661,7 +4684,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>114</v>
       </c>
@@ -4675,7 +4698,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -4689,7 +4712,7 @@
         <v>18244</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -4706,7 +4729,7 @@
         <v>19139</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -4723,7 +4746,7 @@
         <v>19140</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -4737,7 +4760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -4748,7 +4771,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -4762,7 +4785,7 @@
         <v>20802</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -4779,7 +4802,7 @@
         <v>24423</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -4796,7 +4819,7 @@
         <v>33755</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -4816,7 +4839,7 @@
         <v>33756</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -4833,7 +4856,7 @@
         <v>24850</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -4850,7 +4873,7 @@
         <v>25368</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -4867,7 +4890,7 @@
         <v>24207</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -4884,7 +4907,7 @@
         <v>24952</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -4901,7 +4924,7 @@
         <v>24424</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="B179" t="s">
         <v>9</v>
       </c>
@@ -4918,7 +4941,7 @@
         <v>24421</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>174</v>
       </c>
@@ -4935,7 +4958,7 @@
         <v>22547</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>175</v>
       </c>
@@ -4952,7 +4975,7 @@
         <v>20511</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>176</v>
       </c>
@@ -4969,7 +4992,7 @@
         <v>34138</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>177</v>
       </c>
@@ -4989,7 +5012,7 @@
         <v>34139</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>178</v>
       </c>
@@ -5006,7 +5029,7 @@
         <v>27331</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>179</v>
       </c>
@@ -5026,7 +5049,7 @@
         <v>27363</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>180</v>
       </c>
@@ -5046,7 +5069,7 @@
         <v>27364</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>181</v>
       </c>
@@ -5066,7 +5089,7 @@
         <v>27365</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>182</v>
       </c>
@@ -5086,7 +5109,7 @@
         <v>27366</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>183</v>
       </c>
@@ -5103,7 +5126,7 @@
         <v>18158</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -5120,7 +5143,7 @@
         <v>26945</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>185</v>
       </c>
@@ -5134,7 +5157,7 @@
         <v>27265</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>186</v>
       </c>
@@ -5151,7 +5174,7 @@
         <v>27266</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>187</v>
       </c>
@@ -5168,7 +5191,7 @@
         <v>27267</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -5185,7 +5208,7 @@
         <v>27545</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>189</v>
       </c>
@@ -5202,7 +5225,7 @@
         <v>33737</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="B196" t="s">
         <v>9</v>
       </c>
@@ -5219,7 +5242,7 @@
         <v>33739</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>190</v>
       </c>
@@ -5236,7 +5259,7 @@
         <v>33738</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="B198" t="s">
         <v>9</v>
       </c>
@@ -5253,7 +5276,7 @@
         <v>33740</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>191</v>
       </c>
@@ -5270,7 +5293,7 @@
         <v>27005</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>135</v>
       </c>
@@ -5290,7 +5313,7 @@
         <v>27007</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>192</v>
       </c>
@@ -5307,7 +5330,7 @@
         <v>27021</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>136</v>
       </c>
@@ -5327,7 +5350,7 @@
         <v>27006</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -5341,9 +5364,9 @@
         <v>27058</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
@@ -5352,47 +5375,41 @@
         <v>143</v>
       </c>
       <c r="H204">
+        <v>27302</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>112</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>143</v>
+      </c>
+      <c r="H205">
         <v>11323</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>194</v>
-      </c>
-      <c r="B205" t="s">
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
         <v>195</v>
       </c>
-      <c r="C205" t="s">
+      <c r="B206" t="s">
         <v>196</v>
       </c>
-      <c r="D205" t="s">
-        <v>196</v>
-      </c>
-      <c r="H205">
+      <c r="C206" t="s">
+        <v>197</v>
+      </c>
+      <c r="D206" t="s">
+        <v>197</v>
+      </c>
+      <c r="H206">
         <v>21472</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>197</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" t="s">
-        <v>196</v>
-      </c>
-      <c r="D206" t="s">
-        <v>196</v>
-      </c>
-      <c r="E206" t="s">
-        <v>194</v>
-      </c>
-      <c r="H206">
-        <v>26907</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>198</v>
       </c>
@@ -5400,19 +5417,19 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D207" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E207" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H207">
-        <v>21473</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26907</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>199</v>
       </c>
@@ -5420,19 +5437,19 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D208" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E208" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H208">
-        <v>21474</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21473</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>200</v>
       </c>
@@ -5440,19 +5457,19 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D209" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E209" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H209">
-        <v>21475</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21474</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>201</v>
       </c>
@@ -5460,19 +5477,19 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D210" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E210" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H210">
-        <v>20528</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21475</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>202</v>
       </c>
@@ -5480,19 +5497,19 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D211" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E211" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H211">
-        <v>26353</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20528</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>203</v>
       </c>
@@ -5500,62 +5517,59 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D212" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E212" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H212">
-        <v>26350</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>204</v>
       </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D213" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E213" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H213">
-        <v>26351</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>205</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D214" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E214" t="s">
-        <v>194</v>
-      </c>
-      <c r="F214" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H214">
-        <v>26358</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26351</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>206</v>
       </c>
@@ -5563,22 +5577,22 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D215" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E215" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F215" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H215">
-        <v>26359</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26358</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>207</v>
       </c>
@@ -5586,22 +5600,22 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D216" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E216" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F216" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H216">
-        <v>27616</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26359</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>208</v>
       </c>
@@ -5609,22 +5623,22 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D217" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E217" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F217" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H217">
-        <v>27617</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27616</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>209</v>
       </c>
@@ -5632,22 +5646,22 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D218" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E218" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F218" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H218">
-        <v>26356</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27617</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>210</v>
       </c>
@@ -5655,65 +5669,65 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D219" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E219" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F219" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H219">
-        <v>26357</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26356</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>211</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D220" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E220" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="F220" t="s">
+        <v>205</v>
       </c>
       <c r="H220">
-        <v>26349</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26357</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C221" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D221" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E221" t="s">
-        <v>194</v>
-      </c>
-      <c r="F221" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H221">
-        <v>26774</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26349</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>213</v>
       </c>
@@ -5721,22 +5735,22 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D222" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E222" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F222" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H222">
-        <v>26355</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26774</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>214</v>
       </c>
@@ -5744,22 +5758,22 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D223" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E223" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F223" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H223">
-        <v>26993</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26355</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>215</v>
       </c>
@@ -5767,65 +5781,65 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D224" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E224" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F224" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H224">
-        <v>26362</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26993</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>216</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D225" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E225" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="F225" t="s">
+        <v>212</v>
       </c>
       <c r="H225">
-        <v>27015</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26362</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>217</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C226" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D226" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E226" t="s">
-        <v>194</v>
-      </c>
-      <c r="F226" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="H226">
-        <v>27040</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27015</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>218</v>
       </c>
@@ -5833,22 +5847,22 @@
         <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E227" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F227" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H227">
-        <v>27038</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27040</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>219</v>
       </c>
@@ -5856,22 +5870,22 @@
         <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D228" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E228" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F228" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H228">
-        <v>27039</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27038</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>220</v>
       </c>
@@ -5879,22 +5893,22 @@
         <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D229" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E229" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F229" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H229">
-        <v>27043</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27039</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>221</v>
       </c>
@@ -5902,19 +5916,22 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D230" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E230" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="F230" t="s">
+        <v>217</v>
       </c>
       <c r="H230">
-        <v>27017</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27043</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>222</v>
       </c>
@@ -5922,19 +5939,19 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D231" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E231" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H231">
-        <v>20524</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27017</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>223</v>
       </c>
@@ -5942,82 +5959,79 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D232" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E232" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H232">
+        <v>20524</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
+        <v>197</v>
+      </c>
+      <c r="D233" t="s">
+        <v>197</v>
+      </c>
+      <c r="E233" t="s">
+        <v>195</v>
+      </c>
+      <c r="H233">
         <v>20526</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
         <v>114</v>
       </c>
-      <c r="B233" t="s">
-        <v>9</v>
-      </c>
-      <c r="C233" t="s">
-        <v>196</v>
-      </c>
-      <c r="D233" t="s">
-        <v>196</v>
-      </c>
-      <c r="E233" t="s">
-        <v>194</v>
-      </c>
-      <c r="H233">
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>197</v>
+      </c>
+      <c r="D234" t="s">
+        <v>197</v>
+      </c>
+      <c r="E234" t="s">
+        <v>195</v>
+      </c>
+      <c r="H234">
         <v>3167</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>224</v>
-      </c>
-      <c r="B234" t="s">
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>225</v>
+      </c>
+      <c r="B235" t="s">
         <v>33</v>
       </c>
-      <c r="C234" t="s">
-        <v>196</v>
-      </c>
-      <c r="D234" t="s">
-        <v>196</v>
-      </c>
-      <c r="E234" t="s">
-        <v>194</v>
-      </c>
-      <c r="H234">
+      <c r="C235" t="s">
+        <v>197</v>
+      </c>
+      <c r="D235" t="s">
+        <v>197</v>
+      </c>
+      <c r="E235" t="s">
+        <v>195</v>
+      </c>
+      <c r="H235">
         <v>26354</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>212</v>
-      </c>
-      <c r="B235" t="s">
-        <v>9</v>
-      </c>
-      <c r="C235" t="s">
-        <v>196</v>
-      </c>
-      <c r="D235" t="s">
-        <v>196</v>
-      </c>
-      <c r="E235" t="s">
-        <v>194</v>
-      </c>
-      <c r="F235" t="s">
-        <v>224</v>
-      </c>
-      <c r="H235">
-        <v>26774</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -6025,22 +6039,22 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D236" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E236" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F236" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H236">
-        <v>26355</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26774</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>214</v>
       </c>
@@ -6048,22 +6062,22 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D237" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E237" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F237" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H237">
-        <v>26993</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26355</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>215</v>
       </c>
@@ -6071,65 +6085,65 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D238" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E238" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F238" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H238">
+        <v>26993</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>216</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>197</v>
+      </c>
+      <c r="D239" t="s">
+        <v>197</v>
+      </c>
+      <c r="E239" t="s">
+        <v>195</v>
+      </c>
+      <c r="F239" t="s">
+        <v>225</v>
+      </c>
+      <c r="H239">
         <v>26362</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>225</v>
-      </c>
-      <c r="B239" t="s">
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>226</v>
+      </c>
+      <c r="B240" t="s">
         <v>33</v>
       </c>
-      <c r="C239" t="s">
-        <v>196</v>
-      </c>
-      <c r="D239" t="s">
-        <v>196</v>
-      </c>
-      <c r="E239" t="s">
-        <v>194</v>
-      </c>
-      <c r="H239">
+      <c r="C240" t="s">
+        <v>197</v>
+      </c>
+      <c r="D240" t="s">
+        <v>197</v>
+      </c>
+      <c r="E240" t="s">
+        <v>195</v>
+      </c>
+      <c r="H240">
         <v>27016</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>217</v>
-      </c>
-      <c r="B240" t="s">
-        <v>9</v>
-      </c>
-      <c r="C240" t="s">
-        <v>196</v>
-      </c>
-      <c r="D240" t="s">
-        <v>196</v>
-      </c>
-      <c r="E240" t="s">
-        <v>194</v>
-      </c>
-      <c r="F240" t="s">
-        <v>225</v>
-      </c>
-      <c r="H240">
-        <v>27040</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>218</v>
       </c>
@@ -6137,22 +6151,22 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D241" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E241" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F241" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H241">
-        <v>27038</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27040</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>219</v>
       </c>
@@ -6160,22 +6174,22 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D242" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E242" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F242" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H242">
-        <v>27039</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27038</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>220</v>
       </c>
@@ -6183,42 +6197,45 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D243" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E243" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F243" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H243">
+        <v>27039</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>221</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>197</v>
+      </c>
+      <c r="D244" t="s">
+        <v>197</v>
+      </c>
+      <c r="E244" t="s">
+        <v>195</v>
+      </c>
+      <c r="F244" t="s">
+        <v>226</v>
+      </c>
+      <c r="H244">
         <v>27043</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>226</v>
-      </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" t="s">
-        <v>196</v>
-      </c>
-      <c r="D244" t="s">
-        <v>196</v>
-      </c>
-      <c r="E244" t="s">
-        <v>194</v>
-      </c>
-      <c r="H244">
-        <v>20523</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>227</v>
       </c>
@@ -6226,19 +6243,19 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D245" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E245" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H245">
-        <v>27029</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20523</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>228</v>
       </c>
@@ -6246,19 +6263,19 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D246" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E246" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H246">
-        <v>20527</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27029</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>229</v>
       </c>
@@ -6266,19 +6283,19 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D247" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E247" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H247">
-        <v>26720</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20527</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>230</v>
       </c>
@@ -6286,15 +6303,35 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D248" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E248" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H248">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>231</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>197</v>
+      </c>
+      <c r="D249" t="s">
+        <v>197</v>
+      </c>
+      <c r="E249" t="s">
+        <v>195</v>
+      </c>
+      <c r="H249">
         <v>20525</v>
       </c>
     </row>

--- a/Microsoft 365/Monthly Enterprise Channel/outlookmmsreadcontrols.xlsx
+++ b/Microsoft 365/Monthly Enterprise Channel/outlookmmsreadcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\MECOct2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\MECDec2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B455F2-74EC-4FA5-907E-4D968F0BC8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5F3CD5-4BDC-4E6B-9F29-D4BBFD2AA3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
+    <workbookView xWindow="2850" yWindow="4260" windowWidth="25470" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="outlookmmsreadcontrols" sheetId="1" r:id="rId1"/>
